--- a/complete_P_threshold_protein_group_FDR_0.01.xlsx
+++ b/complete_P_threshold_protein_group_FDR_0.01.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">20190926-boil+sonication/24_10_19_analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190930-homogenizer_powder/db3_analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190923-homogenizer/24_10_19_analysis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit</t>
   </si>
   <si>
     <t xml:space="preserve">interact-S-beff-R1.ipro.pep.xml</t>
@@ -37,154 +34,154 @@
     <t xml:space="preserve">0.814</t>
   </si>
   <si>
+    <t xml:space="preserve">interact-S-beff-R2.ipro.pep.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-beff-R3.ipro.pep.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-bey-R1.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-bey-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-bey-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-Imp-R1.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-Imp-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-S-Imp-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8354</t>
+  </si>
+  <si>
     <t xml:space="preserve">interact-HP-Beff-R1.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8448</t>
   </si>
   <si>
+    <t xml:space="preserve">interact-HP-Beff-R2.ipro.prot.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-Beff-R3.ipro.prot.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-Bey-R1.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-Bey-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-Bey-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-Imp-R1.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nteract-HP-Imp-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nteract-HP-Imp-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7894</t>
+  </si>
+  <si>
     <t xml:space="preserve">interact-20190923-Imp-homogenizer-R1.ipro.prot.xml</t>
   </si>
   <si>
     <t xml:space="preserve">0.8605</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-beff-R2.ipro.pep.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Beff-R2.ipro.prot.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7643</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-20190923-Imp-homogenizer-R2.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.7716</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-beff-R3.ipro.pep.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Beff-R3.ipro.prot.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8094</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-20190923-Imp-homogenizer-R3.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8873</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-bey-R1.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Bey-R1.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-bey-R1.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8187</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-bey-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Bey-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8784</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-bey-R2.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.9266</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-bey-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Bey-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-bey-R3.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.9049</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-Imp-R1.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-HP-Imp-R1.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5688</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-bff-R1.ipro.prot.xml</t>
   </si>
   <si>
     <t xml:space="preserve">0.8627</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-Imp-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nteract-HP-Imp-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8509</t>
-  </si>
-  <si>
     <t xml:space="preserve">interact-bff-R2.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.6896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-S-Imp-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nteract-HP-Imp-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7894</t>
   </si>
   <si>
     <t xml:space="preserve">interact-bff-R3.ipro.prot.xml</t>
@@ -371,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:F10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,207 +384,246 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B27" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="B28" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/complete_P_threshold_protein_group_FDR_0.01.xlsx
+++ b/complete_P_threshold_protein_group_FDR_0.01.xlsx
@@ -28,19 +28,19 @@
     <t xml:space="preserve">limit</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-beff-R1.ipro.pep.xml</t>
+    <t xml:space="preserve">interact-S-beef-R1.ipro.pep.xml</t>
   </si>
   <si>
     <t xml:space="preserve">0.814</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-beff-R2.ipro.pep.xml </t>
+    <t xml:space="preserve">interact-S-beef-R2.ipro.pep.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.9026</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-S-beff-R3.ipro.pep.xml </t>
+    <t xml:space="preserve">interact-S-beef-R3.ipro.pep.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.845</t>
@@ -82,37 +82,91 @@
     <t xml:space="preserve">0.8354</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Beff-R1.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-H-Imp-R1.ipro.prot.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-Imp-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-Imp-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-bey-R1.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-bey-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-bey-R3.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-beef-R1.ipro.prot.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-beef-R2.ipro.prot.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-H-beef-R3.ipro.prot.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interact-HP-beef-R1.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8448</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Beff-R2.ipro.prot.xml</t>
+    <t xml:space="preserve">interact-HP-beef-R2.ipro.prot.xml</t>
   </si>
   <si>
     <t xml:space="preserve">0.7643</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Beff-R3.ipro.prot.xml</t>
+    <t xml:space="preserve">interact-HP-beef-R3.ipro.prot.xml</t>
   </si>
   <si>
     <t xml:space="preserve">0.8094</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Bey-R1.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-HP-bey-R1.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.844</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Bey-R2.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-HP-bey-R2.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8784</t>
   </si>
   <si>
-    <t xml:space="preserve">interact-HP-Bey-R3.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-HP-bey-R3.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.922</t>
@@ -124,70 +178,16 @@
     <t xml:space="preserve">0.5688</t>
   </si>
   <si>
-    <t xml:space="preserve">nteract-HP-Imp-R2.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-HP-Imp-R2.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.8509</t>
   </si>
   <si>
-    <t xml:space="preserve">nteract-HP-Imp-R3.ipro.prot.xml </t>
+    <t xml:space="preserve">interact-HP-Imp-R3.ipro.prot.xml </t>
   </si>
   <si>
     <t xml:space="preserve">0.7894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-20190923-Imp-homogenizer-R1.ipro.prot.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-20190923-Imp-homogenizer-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-20190923-Imp-homogenizer-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bey-R1.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bey-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bey-R3.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bff-R1.ipro.prot.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bff-R2.ipro.prot.xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interact-bff-R3.ipro.prot.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8832</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -219,14 +219,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF454545"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -278,16 +270,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,107 +369,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -489,7 +457,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -497,7 +465,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -505,7 +473,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -513,7 +481,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -521,7 +489,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -529,15 +497,15 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -545,7 +513,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -553,7 +521,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -561,7 +529,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -569,7 +537,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -577,7 +545,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -585,7 +553,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -593,7 +561,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -601,7 +569,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -609,7 +577,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -617,19 +585,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
